--- a/Data/Traffic/VMT/SaltLakeVMT_Week.xlsx
+++ b/Data/Traffic/VMT/SaltLakeVMT_Week.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aawang\Covid_Model\Data\Traffic\VMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aawang\CovidTraffic\Data\Traffic\VMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581C2DD9-1C18-4CA7-84C0-F505D05BE4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78575AA4-9237-4874-A394-CA76AA3AFF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2640" windowWidth="15375" windowHeight="8340" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Report Description</t>
   </si>
@@ -619,6 +619,165 @@
   </si>
   <si>
     <t>VMT</t>
+  </si>
+  <si>
+    <t>1/1/2018 - 1/7/2018</t>
+  </si>
+  <si>
+    <t>1/8/2018 - 1/14/2018</t>
+  </si>
+  <si>
+    <t>1/15/2018 - 1/21/2018</t>
+  </si>
+  <si>
+    <t>1/22/2018 - 1/28/2018</t>
+  </si>
+  <si>
+    <t>1/29/2018 - 2/4/2018</t>
+  </si>
+  <si>
+    <t>2/5/2018 - 2/11/2018</t>
+  </si>
+  <si>
+    <t>2/12/2018 - 2/18/2018</t>
+  </si>
+  <si>
+    <t>2/19/2018 - 2/25/2018</t>
+  </si>
+  <si>
+    <t>2/26/2018 - 3/4/2018</t>
+  </si>
+  <si>
+    <t>3/5/2018 - 3/11/2018</t>
+  </si>
+  <si>
+    <t>3/12/2018 - 3/18/2018</t>
+  </si>
+  <si>
+    <t>3/19/2018 - 3/25/2018</t>
+  </si>
+  <si>
+    <t>3/26/2018 - 4/1/2018</t>
+  </si>
+  <si>
+    <t>4/2/2018 - 4/8/2018</t>
+  </si>
+  <si>
+    <t>4/9/2018 - 4/15/2018</t>
+  </si>
+  <si>
+    <t>4/16/2018 - 4/22/2018</t>
+  </si>
+  <si>
+    <t>4/23/2018 - 4/29/2018</t>
+  </si>
+  <si>
+    <t>4/30/2018 - 5/6/2018</t>
+  </si>
+  <si>
+    <t>5/7/2018 - 5/13/2018</t>
+  </si>
+  <si>
+    <t>5/14/2018 - 5/20/2018</t>
+  </si>
+  <si>
+    <t>5/21/2018 - 5/27/2018</t>
+  </si>
+  <si>
+    <t>5/28/2018 - 6/3/2018</t>
+  </si>
+  <si>
+    <t>6/4/2018 - 6/10/2018</t>
+  </si>
+  <si>
+    <t>6/11/2018 - 6/17/2018</t>
+  </si>
+  <si>
+    <t>6/18/2018 - 6/24/2018</t>
+  </si>
+  <si>
+    <t>6/25/2018 - 7/1/2018</t>
+  </si>
+  <si>
+    <t>7/2/2018 - 7/8/2018</t>
+  </si>
+  <si>
+    <t>7/9/2018 - 7/15/2018</t>
+  </si>
+  <si>
+    <t>7/16/2018 - 7/22/2018</t>
+  </si>
+  <si>
+    <t>7/23/2018 - 7/29/2018</t>
+  </si>
+  <si>
+    <t>7/30/2018 - 8/5/2018</t>
+  </si>
+  <si>
+    <t>8/6/2018 - 8/12/2018</t>
+  </si>
+  <si>
+    <t>8/13/2018 - 8/19/2018</t>
+  </si>
+  <si>
+    <t>8/20/2018 - 8/26/2018</t>
+  </si>
+  <si>
+    <t>8/27/2018 - 9/2/2018</t>
+  </si>
+  <si>
+    <t>9/3/2018 - 9/9/2018</t>
+  </si>
+  <si>
+    <t>9/10/2018 - 9/16/2018</t>
+  </si>
+  <si>
+    <t>9/17/2018 - 9/23/2018</t>
+  </si>
+  <si>
+    <t>9/24/2018 - 9/30/2018</t>
+  </si>
+  <si>
+    <t>10/1/2018 - 10/7/2018</t>
+  </si>
+  <si>
+    <t>10/8/2018 - 10/14/2018</t>
+  </si>
+  <si>
+    <t>10/15/2018 - 10/21/2018</t>
+  </si>
+  <si>
+    <t>10/22/2018 - 10/28/2018</t>
+  </si>
+  <si>
+    <t>10/29/2018 - 11/4/2018</t>
+  </si>
+  <si>
+    <t>11/5/2018 - 11/11/2018</t>
+  </si>
+  <si>
+    <t>11/12/2018 - 11/18/2018</t>
+  </si>
+  <si>
+    <t>11/19/2018 - 11/25/2018</t>
+  </si>
+  <si>
+    <t>11/26/2018 - 12/2/2018</t>
+  </si>
+  <si>
+    <t>12/3/2018 - 12/9/2018</t>
+  </si>
+  <si>
+    <t>12/10/2018 - 12/16/2018</t>
+  </si>
+  <si>
+    <t>12/17/2018 - 12/23/2018</t>
+  </si>
+  <si>
+    <t>12/24/2018 - 12/30/2018</t>
+  </si>
+  <si>
+    <t>2/7/2022 - 2/13/2022</t>
   </si>
 </sst>
 </file>
@@ -717,10 +876,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1036,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,1299 +1217,1723 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="9">
+        <v>64342426.999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="9">
+        <v>68283841.400000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9">
+        <v>65983134.599999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="9">
+        <v>68658037.200000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="9">
+        <v>69435067.400000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="9">
+        <v>70104797.099999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="9">
+        <v>69293952.599999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="9">
+        <v>62684891.300000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="9">
+        <v>69033807.899999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="9">
+        <v>72117875.099999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="9">
+        <v>70637924.899999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="9">
+        <v>71372108.399999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="9">
+        <v>73170538.400000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="9">
+        <v>69396394.799999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="9">
+        <v>69075498.200000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="9">
+        <v>70024437.099999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="9">
+        <v>71047332.399999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="9">
+        <v>70857038.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="9">
+        <v>70387901.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="9">
+        <v>70886191.299999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="9">
+        <v>69652051.299999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="9">
+        <v>68690350.700000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="9">
+        <v>71712300.799999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="9">
+        <v>73018929.900000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="9">
+        <v>72920487.200000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="9">
+        <v>73172754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="9">
+        <v>67289212.299999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="9">
+        <v>72619713.400000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="9">
+        <v>72466212.600000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="9">
+        <v>71145878.200000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="9">
+        <v>72279214.799999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="9">
+        <v>73706441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="9">
+        <v>74403592.800000012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="9">
+        <v>72091806.400000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="9">
+        <v>71265567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="9">
+        <v>69121540.900000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="9">
+        <v>71981451.799999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="9">
+        <v>71963921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="9">
+        <v>71464652.400000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="9">
+        <v>71183028.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="9">
+        <v>71283701.599999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="9">
+        <v>70994434.600000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="9">
+        <v>71188576.299999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="9">
+        <v>69013504.299999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="9">
+        <v>69428051.700000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" s="9">
+        <v>68971168.900000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="9">
+        <v>61944646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="9">
+        <v>66608884.899999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" s="9">
+        <v>67781526.900000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="9">
+        <v>69139688.900000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="9">
+        <v>72194760.100000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="9">
+        <v>55621566.299999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B54" s="9">
         <v>59152250.699999996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B55" s="9">
         <v>66181817.099999994</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B56" s="9">
         <v>65217107.000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B57" s="9">
         <v>63764156.799999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B58" s="9">
         <v>68255092.899999991</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B59" s="9">
         <v>60363403.399999991</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B60" s="9">
         <v>65513548.100000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B61" s="9">
         <v>66504986.299999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B62" s="9">
         <v>68648000.700000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B63" s="9">
         <v>68744985.799999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B64" s="9">
         <v>68722680.700000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B65" s="9">
         <v>70132915.099999994</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B66" s="9">
         <v>71034329.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B67" s="9">
         <v>70567540.900000006</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B68" s="9">
         <v>69473076.700000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B69" s="9">
         <v>69497368.099999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B70" s="9">
         <v>71972742.399999991</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B71" s="9">
         <v>72009162.700000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B72" s="9">
         <v>72520435.199999988</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B73" s="9">
         <v>70832701.599999994</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B74" s="9">
         <v>69735634.400000006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B75" s="9">
         <v>68804376.700000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B76" s="9">
         <v>72167863.299999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B77" s="9">
         <v>72802863.400000006</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B78" s="9">
         <v>72996099.599999994</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B79" s="9">
         <v>72780489.200000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B80" s="9">
         <v>66094247.200000003</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B81" s="9">
         <v>72861868.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B82" s="9">
         <v>73653810.200000003</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B83" s="9">
         <v>71208809.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B84" s="9">
         <v>73063204.399999991</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B85" s="9">
         <v>73168406.099999994</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B86" s="9">
         <v>74106570.700000003</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B87" s="9">
         <v>72476492.700000003</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B88" s="9">
         <v>71489223.400000006</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B89" s="9">
         <v>76166552</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B90" s="9">
         <v>80390593.200000003</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B91" s="9">
         <v>78962857.099999994</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B92" s="9">
         <v>79566755.799999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B93" s="9">
         <v>81921105.500000015</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B94" s="9">
         <v>80993125.799999997</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B95" s="9">
         <v>79049533.900000006</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B96" s="9">
         <v>79283212.900000006</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B97" s="9">
         <v>76918383.599999994</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B98" s="9">
         <v>78170121.600000009</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B99" s="9">
         <v>78014877.899999991</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B100" s="9">
         <v>77684934.600000009</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B101" s="9">
         <v>61943994.500000007</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B102" s="9">
         <v>77407677.5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B103" s="9">
         <v>80388859.900000006</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B104" s="9">
         <v>86315706.700000003</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B105" s="9">
         <v>68554998.200000003</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B106" s="9">
         <v>69071704.899999991</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B107" s="9">
         <v>77432451.099999994</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B108" s="9">
         <v>77918793.300000012</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B109" s="9">
         <v>82916137</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B110" s="9">
         <v>84761913.599999994</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B111" s="9">
         <v>76481491.200000003</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B112" s="9">
         <v>84762174.299999997</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B113" s="9">
         <v>84572858.599999994</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B114" s="9">
         <v>85724102.099999994</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B115" s="9">
         <v>86373199.200000003</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B116" s="9">
         <v>81623111.899999991</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B117" s="9">
         <v>62975537.79999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B118" s="9">
         <v>55539741.399999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B119" s="9">
         <v>52933614.700000003</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B120" s="9">
         <v>53293011.100000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B121" s="9">
         <v>54639045.500000007</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B122" s="9">
         <v>58384926.200000003</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B123" s="9">
         <v>61277828.299999997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B124" s="9">
         <v>66999993.399999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B125" s="9">
         <v>66888364.700000003</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B126" s="9">
         <v>69745664.5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B127" s="9">
         <v>70478852.900000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B128" s="9">
         <v>72656052.099999994</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B129" s="9">
         <v>75657023.999999985</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B130" s="9">
         <v>77658669.900000006</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B131" s="9">
         <v>79090994.899999991</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B132" s="9">
         <v>71036748.5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B133" s="9">
         <v>75132147.299999982</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B134" s="9">
         <v>77876663.300000012</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B135" s="9">
         <v>75872761.200000003</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B136" s="9">
         <v>78881712.600000009</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B137" s="9">
         <v>77100371.700000003</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B138" s="9">
         <v>76680782.200000003</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B139" s="9">
         <v>76457886.800000012</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B140" s="9">
         <v>75910860.700000003</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B141" s="9">
         <v>74812791.299999982</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B142" s="9">
         <v>72821163.099999994</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B143" s="9">
         <v>75983321.200000003</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B144" s="9">
         <v>76067656.200000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B145" s="9">
         <v>75454365.200000003</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B146" s="9">
         <v>75647504.300000012</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B147" s="9">
         <v>76026363.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B148" s="9">
         <v>73717843.200000003</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B149" s="9">
         <v>72454970.400000006</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B150" s="9">
         <v>69941470</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B151" s="9">
         <v>65299026.699999996</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B152" s="9">
         <v>68362459.200000003</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B153" s="9">
         <v>62335548.700000003</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B154" s="9">
         <v>69623984.299999997</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B155" s="9">
         <v>69445884.5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B156" s="9">
         <v>71049109.5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B157" s="9">
         <v>63694016.799999997</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B158" s="9">
         <v>62198127.999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B159" s="9">
         <v>69414613</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B160" s="9">
         <v>69764092.200000003</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B161" s="9">
         <v>68060233.299999997</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B162" s="9">
         <v>69571078.699999988</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B163" s="9">
         <v>70220770.899999991</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B164" s="9">
         <v>70660443.399999991</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B165" s="9">
         <v>68090422.299999997</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B166" s="9">
         <v>76337103.800000012</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B167" s="9">
         <v>78213949.400000006</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B168" s="9">
         <v>77075398.100000009</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B169" s="9">
         <v>79068293.900000006</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B170" s="9">
         <v>80648802.200000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B171" s="9">
         <v>78352346.100000009</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B172" s="9">
         <v>78959710.599999994</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B173" s="9">
         <v>78127863</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B174" s="9">
         <v>79302102.599999994</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B175" s="9">
         <v>79764440.800000012</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B176" s="9">
         <v>81377441.900000006</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B177" s="9">
         <v>79723017.299999997</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B178" s="9">
         <v>80769886</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B179" s="9">
         <v>81833504.400000006</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B180" s="9">
         <v>80365107.900000006</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B181" s="9">
         <v>83621484.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B182" s="9">
         <v>85674980.100000009</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B183" s="9">
         <v>84420286.299999997</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B184" s="9">
         <v>82428893.399999991</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B185" s="9">
         <v>81532035.100000009</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B186" s="9">
         <v>85148992.700000003</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B187" s="9">
         <v>83008618.299999997</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B188" s="9">
         <v>84208934</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B189" s="9">
         <v>83511307.899999991</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B190" s="9">
         <v>84111158.300000012</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="9" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B191" s="9">
         <v>81174006.600000009</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B192" s="9">
         <v>82683985.700000003</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="9" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B193" s="9">
         <v>80633393.499999985</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B194" s="9">
         <v>79402042.200000003</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="9" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B195" s="9">
         <v>82658901.200000018</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B196" s="9">
         <v>83162665.599999994</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B197" s="9">
         <v>82395341.299999997</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B198" s="9">
         <v>81814001.600000009</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B199" s="9">
         <v>80915977.299999997</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B200" s="9">
         <v>79954935.100000009</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B201" s="9">
         <v>80272890.400000006</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B202" s="9">
         <v>79457303.299999997</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B203" s="9">
         <v>79542545.299999997</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B204" s="9">
         <v>80116497.699999988</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B205" s="9">
         <v>72167973.100000009</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B206" s="9">
         <v>79550158.899999991</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="9" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B207" s="9">
         <v>75668913.300000012</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="9" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B208" s="9">
         <v>77809476.099999994</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="9" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B209" s="9">
         <v>71502911.799999997</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="9" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B210" s="9">
         <v>62352608.000000007</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B211" s="9">
         <v>71548116.199999988</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B212" s="9">
         <v>71794673.200000003</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="9" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B213" s="9">
         <v>72930069.200000003</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="9" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B214" s="9">
         <v>76286409.800000012</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="9" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B215" s="9">
         <v>76496169.100000009</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B216" s="9">
+        <v>80311937.599999994</v>
       </c>
     </row>
   </sheetData>
